--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1612.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1612.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.136303862652949</v>
+        <v>0.6089751124382019</v>
       </c>
       <c r="B1">
-        <v>2.321678477796017</v>
+        <v>1.532878279685974</v>
       </c>
       <c r="C1">
-        <v>4.84734860999876</v>
+        <v>5.282925605773926</v>
       </c>
       <c r="D1">
-        <v>2.456440132527592</v>
+        <v>3.046599149703979</v>
       </c>
       <c r="E1">
-        <v>1.088128993641545</v>
+        <v>0.7853374481201172</v>
       </c>
     </row>
   </sheetData>
